--- a/server/public/data/Malt.xlsx
+++ b/server/public/data/Malt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanjarvis/Dev-Academy/BrewADog/server/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296CB420-F8AE-2545-AFD5-810A010DF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF621483-DEC6-E74C-B4BE-7B8842C931A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18080" yWindow="500" windowWidth="15520" windowHeight="18780" activeTab="1" xr2:uid="{879ED9C2-D493-6B4C-B3F9-4B6607D644CE}"/>
   </bookViews>
